--- a/markdown/scripts/SpeciesLocations.xlsx
+++ b/markdown/scripts/SpeciesLocations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="SpeciesLocations.csv" sheetId="1" r:id="rId1"/>
